--- a/apps/load_data/2016/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/03/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0316\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2016\HHY0316\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77018F6-BC15-45F9-BE0A-08F51D11FB88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97426031-9C55-4EB2-96BC-0B129F21E4DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$337</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$278</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13175" uniqueCount="2570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13159" uniqueCount="2569">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6686,9 +6687,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1081    296920    2969201082    159880    1598802001         0     386012006     25800     258002026    156960    1569602086      2500      25002180       250       2502182       100       1002503        50        503004         0     26723</t>
@@ -8591,8 +8589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279:XFD337"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD244" sqref="AC244:AD330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49785,12 +49783,7 @@
       <c r="AA244" s="1">
         <v>0</v>
       </c>
-      <c r="AC244" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD244" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC244" s="3"/>
       <c r="AF244" s="1" t="s">
         <v>103</v>
       </c>
@@ -49855,7 +49848,7 @@
         <v>111</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>1836</v>
@@ -49867,7 +49860,7 @@
         <v>102</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>118</v>
@@ -49888,13 +49881,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -49929,13 +49922,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -49967,12 +49960,7 @@
       <c r="AB245" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AC245" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>103</v>
       </c>
@@ -50019,7 +50007,7 @@
         <v>98</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BB245" s="1">
         <v>3</v>
@@ -50037,7 +50025,7 @@
         <v>111</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BI245" s="1" t="s">
         <v>1541</v>
@@ -50052,13 +50040,13 @@
         <v>99</v>
       </c>
       <c r="BR245" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BS245" s="3">
         <v>36949</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>118</v>
@@ -50082,13 +50070,13 @@
         <v>98</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -50123,13 +50111,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2238</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -50161,12 +50149,7 @@
       <c r="AB246" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AC246" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC246" s="3"/>
       <c r="AF246" s="1" t="s">
         <v>103</v>
       </c>
@@ -50213,7 +50196,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BB246" s="1">
         <v>3</v>
@@ -50234,10 +50217,10 @@
         <v>111</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>114</v>
@@ -50249,13 +50232,13 @@
         <v>99</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BS246" s="3">
         <v>36825</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>118</v>
@@ -50279,13 +50262,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -50320,13 +50303,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -50355,12 +50338,7 @@
       <c r="AA247" s="1">
         <v>0</v>
       </c>
-      <c r="AC247" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>103</v>
       </c>
@@ -50410,7 +50388,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BB247" s="1">
         <v>3</v>
@@ -50428,7 +50406,7 @@
         <v>111</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>189</v>
@@ -50440,7 +50418,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>118</v>
@@ -50458,13 +50436,13 @@
         <v>98</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -50499,13 +50477,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2257</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -50534,12 +50512,7 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>103</v>
       </c>
@@ -50589,7 +50562,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BB248" s="1">
         <v>3</v>
@@ -50607,7 +50580,7 @@
         <v>111</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BI248" s="1" t="s">
         <v>353</v>
@@ -50619,7 +50592,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>118</v>
@@ -50640,10 +50613,10 @@
         <v>672</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2262</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -50678,13 +50651,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2264</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2265</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -50713,12 +50686,7 @@
       <c r="AA249" s="1">
         <v>0</v>
       </c>
-      <c r="AC249" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>103</v>
       </c>
@@ -50768,7 +50736,7 @@
         <v>98</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="BB249" s="1">
         <v>3</v>
@@ -50786,7 +50754,7 @@
         <v>111</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>189</v>
@@ -50798,7 +50766,7 @@
         <v>102</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>118</v>
@@ -50816,13 +50784,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="CD249" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="CE249" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="CD249" s="1" t="s">
-        <v>2269</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -50857,13 +50825,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2272</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2273</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -50898,12 +50866,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>103</v>
       </c>
@@ -50950,7 +50913,7 @@
         <v>98</v>
       </c>
       <c r="AZ250" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BB250" s="1">
         <v>3</v>
@@ -50971,7 +50934,7 @@
         <v>111</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>385</v>
@@ -50986,13 +50949,13 @@
         <v>115</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="BS250" s="3">
         <v>35243</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>118</v>
@@ -51010,13 +50973,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2280</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -51051,13 +51014,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2282</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2283</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -51086,12 +51049,7 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>103</v>
       </c>
@@ -51141,7 +51099,7 @@
         <v>98</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BB251" s="1">
         <v>3</v>
@@ -51159,7 +51117,7 @@
         <v>111</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>988</v>
@@ -51171,7 +51129,7 @@
         <v>102</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>118</v>
@@ -51189,13 +51147,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -51230,13 +51188,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -51265,12 +51223,7 @@
       <c r="AA252" s="1">
         <v>0</v>
       </c>
-      <c r="AC252" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD252" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC252" s="3"/>
       <c r="AF252" s="1" t="s">
         <v>103</v>
       </c>
@@ -51320,7 +51273,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BB252" s="1">
         <v>3</v>
@@ -51338,10 +51291,10 @@
         <v>111</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>114</v>
@@ -51353,7 +51306,7 @@
         <v>155</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>118</v>
@@ -51371,13 +51324,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2299</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -51412,13 +51365,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -51447,12 +51400,7 @@
       <c r="AA253" s="1">
         <v>0</v>
       </c>
-      <c r="AC253" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD253" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC253" s="3"/>
       <c r="AF253" s="1" t="s">
         <v>103</v>
       </c>
@@ -51499,7 +51447,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BB253" s="1">
         <v>3</v>
@@ -51520,7 +51468,7 @@
         <v>111</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BI253" s="1" t="s">
         <v>469</v>
@@ -51535,13 +51483,13 @@
         <v>213</v>
       </c>
       <c r="BR253" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BS253" s="3">
         <v>34307</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>118</v>
@@ -51559,13 +51507,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -51600,13 +51548,13 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -51638,12 +51586,7 @@
       <c r="AA254" s="1">
         <v>0</v>
       </c>
-      <c r="AC254" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD254" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC254" s="3"/>
       <c r="AF254" s="1" t="s">
         <v>103</v>
       </c>
@@ -51693,7 +51636,7 @@
         <v>98</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BB254" s="1">
         <v>3</v>
@@ -51714,7 +51657,7 @@
         <v>111</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BI254" s="1" t="s">
         <v>189</v>
@@ -51726,7 +51669,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>118</v>
@@ -51747,13 +51690,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2317</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -51788,13 +51731,13 @@
         <v>93</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -51823,12 +51766,7 @@
       <c r="AA255" s="1">
         <v>0</v>
       </c>
-      <c r="AC255" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD255" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC255" s="3"/>
       <c r="AF255" s="1" t="s">
         <v>103</v>
       </c>
@@ -51875,7 +51813,7 @@
         <v>98</v>
       </c>
       <c r="AZ255" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BB255" s="1">
         <v>3</v>
@@ -51896,10 +51834,10 @@
         <v>111</v>
       </c>
       <c r="BH255" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="BI255" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="BI255" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>114</v>
@@ -51911,13 +51849,13 @@
         <v>115</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BS255" s="3">
         <v>35950</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>118</v>
@@ -51935,13 +51873,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>1660</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -51976,13 +51914,13 @@
         <v>144</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2328</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>2329</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2330</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>97</v>
@@ -52033,7 +51971,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -52078,13 +52016,13 @@
         <v>111</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>118</v>
@@ -52108,10 +52046,10 @@
         <v>2105</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="CE256" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>2335</v>
       </c>
     </row>
     <row r="257" spans="1:83" x14ac:dyDescent="0.25">
@@ -52146,13 +52084,13 @@
         <v>144</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="N257" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2338</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>97</v>
@@ -52206,7 +52144,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="AO257" s="1">
         <v>0</v>
@@ -52251,13 +52189,13 @@
         <v>111</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>118</v>
@@ -52278,13 +52216,13 @@
         <v>98</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="CD257" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="CD257" s="1" t="s">
+      <c r="CE257" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -52319,13 +52257,13 @@
         <v>144</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="N258" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -52379,7 +52317,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -52424,13 +52362,13 @@
         <v>111</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>118</v>
@@ -52451,13 +52389,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2351</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -52492,13 +52430,13 @@
         <v>144</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="N259" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>97</v>
@@ -52594,13 +52532,13 @@
         <v>111</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>118</v>
@@ -52621,10 +52559,10 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="CE259" s="1" t="s">
         <v>205</v>
@@ -52662,13 +52600,13 @@
         <v>144</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="N260" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>97</v>
@@ -52722,7 +52660,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="AO260" s="1">
         <v>0</v>
@@ -52767,13 +52705,13 @@
         <v>111</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>118</v>
@@ -52797,13 +52735,13 @@
         <v>98</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="CD260" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -52838,13 +52776,13 @@
         <v>144</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="N261" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>97</v>
@@ -52895,7 +52833,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -52940,13 +52878,13 @@
         <v>111</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>118</v>
@@ -52967,18 +52905,18 @@
         <v>98</v>
       </c>
       <c r="CC261" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="CD261" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="CE261" s="1" t="s">
         <v>2370</v>
-      </c>
-      <c r="CD261" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="CE261" s="1" t="s">
-        <v>2371</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>85</v>
@@ -52990,7 +52928,7 @@
         <v>125</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>98</v>
@@ -53002,22 +52940,22 @@
         <v>91</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L262" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L262" s="1" t="s">
+      <c r="M262" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="M262" s="1" t="s">
+      <c r="N262" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="Q262" s="3">
         <v>21430</v>
@@ -53050,7 +52988,7 @@
         <v>41330</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>103</v>
@@ -53101,10 +53039,10 @@
         <v>98</v>
       </c>
       <c r="BH262" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="BI262" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="BI262" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>114</v>
@@ -53113,7 +53051,7 @@
         <v>102</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>118</v>
@@ -53137,13 +53075,13 @@
         <v>98</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="CD262" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="CD262" s="1" t="s">
+      <c r="CE262" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>2385</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -53178,16 +53116,16 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L263" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="L263" s="1" t="s">
+      <c r="M263" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2388</v>
       </c>
       <c r="Q263" s="3">
         <v>21965</v>
@@ -53214,13 +53152,13 @@
         <v>0</v>
       </c>
       <c r="AB263" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="AC263" s="3">
         <v>41579</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -53268,13 +53206,13 @@
         <v>98</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BD263" s="1" t="s">
         <v>99</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>114</v>
@@ -53286,13 +53224,13 @@
         <v>213</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BS263" s="3">
         <v>35087</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>118</v>
@@ -53313,13 +53251,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="CD263" s="1" t="s">
         <v>1524</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -53336,7 +53274,7 @@
         <v>125</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>98</v>
@@ -53348,22 +53286,22 @@
         <v>91</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L264" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L264" s="1" t="s">
+      <c r="M264" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="N264" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="Q264" s="3">
         <v>18241</v>
@@ -53390,7 +53328,7 @@
         <v>41759</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>103</v>
@@ -53420,28 +53358,28 @@
         <v>107</v>
       </c>
       <c r="AQ264" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="AR264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY264" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH264" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="AR264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY264" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH264" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>114</v>
@@ -53450,13 +53388,13 @@
         <v>115</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BS264" s="3">
         <v>34292</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>118</v>
@@ -53477,7 +53415,7 @@
         <v>98</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>1707</v>
@@ -53518,13 +53456,13 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L265" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L265" s="1" t="s">
+      <c r="N265" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>97</v>
@@ -53563,7 +53501,7 @@
         <v>42247</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -53629,10 +53567,10 @@
         <v>111</v>
       </c>
       <c r="BH265" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="BI265" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="BI265" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>114</v>
@@ -53644,13 +53582,13 @@
         <v>213</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BS265" s="3">
         <v>36580</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>118</v>
@@ -53671,7 +53609,7 @@
         <v>98</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>308</v>
@@ -53712,16 +53650,16 @@
         <v>93</v>
       </c>
       <c r="K266" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L266" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L266" s="1" t="s">
+      <c r="M266" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="Q266" s="3">
         <v>23356</v>
@@ -53744,12 +53682,7 @@
       <c r="AA266" s="1">
         <v>0</v>
       </c>
-      <c r="AC266" s="3">
-        <v>42308</v>
-      </c>
-      <c r="AD266" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC266" s="3"/>
       <c r="AF266" s="1" t="s">
         <v>103</v>
       </c>
@@ -53796,7 +53729,7 @@
         <v>98</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>114</v>
@@ -53808,13 +53741,13 @@
         <v>99</v>
       </c>
       <c r="BR266" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BS266" s="3">
         <v>34412</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>118</v>
@@ -53835,13 +53768,13 @@
         <v>98</v>
       </c>
       <c r="CC266" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="CD266" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CD266" s="1" t="s">
+      <c r="CE266" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="CE266" s="1" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="267" spans="1:83" x14ac:dyDescent="0.25">
@@ -53879,10 +53812,10 @@
         <v>2078</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="N267" s="1" t="s">
         <v>2080</v>
@@ -53908,12 +53841,7 @@
       <c r="AA267" s="1">
         <v>0</v>
       </c>
-      <c r="AC267" s="3">
-        <v>42369</v>
-      </c>
-      <c r="AD267" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC267" s="3"/>
       <c r="AF267" s="1" t="s">
         <v>103</v>
       </c>
@@ -53963,10 +53891,10 @@
         <v>98</v>
       </c>
       <c r="BH267" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="BI267" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="BI267" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>114</v>
@@ -54031,13 +53959,13 @@
         <v>93</v>
       </c>
       <c r="K268" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L268" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L268" s="1" t="s">
+      <c r="N268" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>97</v>
@@ -54130,13 +54058,13 @@
         <v>111</v>
       </c>
       <c r="BH268" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="BI268" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="BI268" s="1" t="s">
+      <c r="BJ268" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="BJ268" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>114</v>
@@ -54151,7 +54079,7 @@
         <v>35679</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>118</v>
@@ -54169,7 +54097,7 @@
         <v>89</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="CD268" s="1" t="s">
         <v>274</v>
@@ -54210,13 +54138,13 @@
         <v>93</v>
       </c>
       <c r="K269" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L269" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="L269" s="1" t="s">
+      <c r="N269" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>97</v>
@@ -54297,7 +54225,7 @@
         <v>98</v>
       </c>
       <c r="AZ269" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BB269" s="1">
         <v>3</v>
@@ -54315,7 +54243,7 @@
         <v>111</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>114</v>
@@ -54324,7 +54252,7 @@
         <v>102</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>118</v>
@@ -54342,13 +54270,13 @@
         <v>98</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="CD269" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="270" spans="1:83" x14ac:dyDescent="0.25">
@@ -54383,13 +54311,13 @@
         <v>93</v>
       </c>
       <c r="K270" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L270" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="L270" s="1" t="s">
+      <c r="N270" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="N270" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>97</v>
@@ -54467,7 +54395,7 @@
         <v>98</v>
       </c>
       <c r="AZ270" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BB270" s="1">
         <v>3</v>
@@ -54485,10 +54413,10 @@
         <v>111</v>
       </c>
       <c r="BH270" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="BI270" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="BI270" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>114</v>
@@ -54500,13 +54428,13 @@
         <v>213</v>
       </c>
       <c r="BR270" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BS270" s="3">
         <v>36099</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>118</v>
@@ -54524,13 +54452,13 @@
         <v>98</v>
       </c>
       <c r="CC270" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CD270" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CD270" s="1" t="s">
+      <c r="CE270" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="271" spans="1:83" x14ac:dyDescent="0.25">
@@ -54565,13 +54493,13 @@
         <v>93</v>
       </c>
       <c r="K271" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L271" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L271" s="1" t="s">
+      <c r="N271" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N271" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>97</v>
@@ -54649,7 +54577,7 @@
         <v>98</v>
       </c>
       <c r="AZ271" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BB271" s="1">
         <v>3</v>
@@ -54667,7 +54595,7 @@
         <v>111</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BI271" s="1" t="s">
         <v>1761</v>
@@ -54682,13 +54610,13 @@
         <v>99</v>
       </c>
       <c r="BR271" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BS271" s="3">
         <v>37735</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>118</v>
@@ -54706,13 +54634,13 @@
         <v>98</v>
       </c>
       <c r="CC271" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="CD271" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="CD271" s="1" t="s">
+      <c r="CE271" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="272" spans="1:83" x14ac:dyDescent="0.25">
@@ -54747,13 +54675,13 @@
         <v>93</v>
       </c>
       <c r="K272" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L272" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="L272" s="1" t="s">
+      <c r="N272" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="N272" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>97</v>
@@ -54834,7 +54762,7 @@
         <v>98</v>
       </c>
       <c r="AZ272" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BB272" s="1">
         <v>3</v>
@@ -54852,7 +54780,7 @@
         <v>111</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BI272" s="1" t="s">
         <v>1697</v>
@@ -54864,7 +54792,7 @@
         <v>102</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>118</v>
@@ -54882,13 +54810,13 @@
         <v>98</v>
       </c>
       <c r="CC272" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="CD272" s="1" t="s">
         <v>834</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="273" spans="1:84" x14ac:dyDescent="0.25">
@@ -54923,13 +54851,13 @@
         <v>93</v>
       </c>
       <c r="K273" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L273" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L273" s="1" t="s">
+      <c r="N273" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="N273" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>97</v>
@@ -54965,7 +54893,7 @@
         <v>103</v>
       </c>
       <c r="AG273" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="AH273" s="1" t="s">
         <v>1759</v>
@@ -55010,7 +54938,7 @@
         <v>98</v>
       </c>
       <c r="AZ273" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BB273" s="1">
         <v>3</v>
@@ -55028,7 +54956,7 @@
         <v>111</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>114</v>
@@ -55037,7 +54965,7 @@
         <v>102</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>118</v>
@@ -55058,10 +54986,10 @@
         <v>1476</v>
       </c>
       <c r="CD273" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="CE273" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>2482</v>
       </c>
     </row>
     <row r="274" spans="1:84" x14ac:dyDescent="0.25">
@@ -55096,13 +55024,13 @@
         <v>93</v>
       </c>
       <c r="K274" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L274" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="L274" s="1" t="s">
+      <c r="N274" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="N274" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>97</v>
@@ -55183,7 +55111,7 @@
         <v>98</v>
       </c>
       <c r="AZ274" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BB274" s="1">
         <v>3</v>
@@ -55201,7 +55129,7 @@
         <v>111</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>114</v>
@@ -55210,7 +55138,7 @@
         <v>102</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>118</v>
@@ -55234,7 +55162,7 @@
         <v>911</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="275" spans="1:84" x14ac:dyDescent="0.25">
@@ -55269,13 +55197,13 @@
         <v>93</v>
       </c>
       <c r="K275" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="L275" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="L275" s="1" t="s">
+      <c r="N275" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="N275" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>97</v>
@@ -55314,7 +55242,7 @@
         <v>648</v>
       </c>
       <c r="AH275" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="AI275" s="1" t="s">
         <v>98</v>
@@ -55356,7 +55284,7 @@
         <v>98</v>
       </c>
       <c r="AZ275" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BB275" s="1">
         <v>3</v>
@@ -55374,7 +55302,7 @@
         <v>111</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>114</v>
@@ -55383,7 +55311,7 @@
         <v>102</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>118</v>
@@ -55401,13 +55329,13 @@
         <v>98</v>
       </c>
       <c r="CC275" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="CD275" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="CD275" s="1" t="s">
+      <c r="CE275" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="CE275" s="1" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="276" spans="1:84" x14ac:dyDescent="0.25">
@@ -55442,13 +55370,13 @@
         <v>144</v>
       </c>
       <c r="K276" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="L276" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="L276" s="1" t="s">
+      <c r="N276" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="N276" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>97</v>
@@ -55490,7 +55418,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -55529,13 +55457,13 @@
         <v>111</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>118</v>
@@ -55553,13 +55481,13 @@
         <v>98</v>
       </c>
       <c r="CC276" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="CD276" s="1" t="s">
         <v>318</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="277" spans="1:84" x14ac:dyDescent="0.25">
@@ -55594,16 +55522,16 @@
         <v>93</v>
       </c>
       <c r="K277" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L277" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="L277" s="1" t="s">
+      <c r="M277" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="N277" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="M277" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="N277" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="Q277" s="3">
         <v>18523</v>
@@ -55636,7 +55564,7 @@
         <v>42379</v>
       </c>
       <c r="AD277" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="AF277" s="1" t="s">
         <v>243</v>
@@ -55666,37 +55594,37 @@
         <v>244</v>
       </c>
       <c r="AQ277" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AR277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY277" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ277" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="AR277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY277" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ277" s="1" t="s">
-        <v>2513</v>
       </c>
       <c r="BD277" s="1" t="s">
         <v>416</v>
       </c>
       <c r="BH277" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="BI277" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="BI277" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>114</v>
@@ -55708,13 +55636,13 @@
         <v>115</v>
       </c>
       <c r="BR277" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BS277" s="3">
         <v>35206</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>118</v>
@@ -55735,10 +55663,10 @@
         <v>673</v>
       </c>
       <c r="CD277" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="CE277" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="CE277" s="1" t="s">
-        <v>2519</v>
       </c>
     </row>
     <row r="278" spans="1:84" x14ac:dyDescent="0.25">
@@ -55773,16 +55701,16 @@
         <v>93</v>
       </c>
       <c r="K278" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L278" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="L278" s="1" t="s">
+      <c r="M278" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="N278" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="M278" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="N278" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="Q278" s="3">
         <v>25092</v>
@@ -55812,7 +55740,7 @@
         <v>42369</v>
       </c>
       <c r="AD278" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="AF278" s="1" t="s">
         <v>103</v>
@@ -55860,13 +55788,13 @@
         <v>98</v>
       </c>
       <c r="AZ278" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BD278" s="1" t="s">
         <v>99</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>114</v>
@@ -55878,13 +55806,13 @@
         <v>99</v>
       </c>
       <c r="BR278" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BS278" s="3">
         <v>36301</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>118</v>
@@ -55908,13 +55836,13 @@
         <v>98</v>
       </c>
       <c r="CC278" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="CD278" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="CD278" s="1" t="s">
+      <c r="CE278" s="1" t="s">
         <v>2529</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="279" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -56067,7 +55995,7 @@
         <v>111</v>
       </c>
       <c r="BH279" s="4" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BI279" s="4"/>
       <c r="BJ279" s="4"/>
@@ -56272,7 +56200,7 @@
         <v>111</v>
       </c>
       <c r="BH280" s="4" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BI280" s="4"/>
       <c r="BJ280" s="4"/>
@@ -56473,7 +56401,7 @@
         <v>111</v>
       </c>
       <c r="BH281" s="4" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BI281" s="4"/>
       <c r="BJ281" s="4"/>
@@ -56671,7 +56599,7 @@
         <v>111</v>
       </c>
       <c r="BH282" s="4" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BI282" s="4"/>
       <c r="BJ282" s="4"/>
@@ -56878,7 +56806,7 @@
         <v>111</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -57081,7 +57009,7 @@
         <v>111</v>
       </c>
       <c r="BH284" s="4" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BI284" s="4"/>
       <c r="BJ284" s="4"/>
@@ -57288,7 +57216,7 @@
         <v>111</v>
       </c>
       <c r="BH285" s="4" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BI285" s="4"/>
       <c r="BJ285" s="4"/>
@@ -57486,7 +57414,7 @@
         <v>111</v>
       </c>
       <c r="BH286" s="4" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BI286" s="4"/>
       <c r="BJ286" s="4"/>
@@ -57682,7 +57610,7 @@
         <v>111</v>
       </c>
       <c r="BH287" s="4" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BI287" s="4"/>
       <c r="BJ287" s="4"/>
@@ -57878,7 +57806,7 @@
         <v>111</v>
       </c>
       <c r="BH288" s="4" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BI288" s="4"/>
       <c r="BJ288" s="4"/>
@@ -58076,7 +58004,7 @@
         <v>111</v>
       </c>
       <c r="BH289" s="4" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BI289" s="4"/>
       <c r="BJ289" s="4"/>
@@ -58272,7 +58200,7 @@
         <v>111</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -58468,7 +58396,7 @@
         <v>111</v>
       </c>
       <c r="BH291" s="4" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BI291" s="4"/>
       <c r="BJ291" s="4"/>
@@ -58664,7 +58592,7 @@
         <v>111</v>
       </c>
       <c r="BH292" s="4" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BI292" s="4"/>
       <c r="BJ292" s="4"/>
@@ -58860,7 +58788,7 @@
         <v>111</v>
       </c>
       <c r="BH293" s="4" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BI293" s="4"/>
       <c r="BJ293" s="4"/>
@@ -59060,7 +58988,7 @@
         <v>111</v>
       </c>
       <c r="BH294" s="4" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BI294" s="4"/>
       <c r="BJ294" s="4"/>
@@ -59256,7 +59184,7 @@
         <v>111</v>
       </c>
       <c r="BH295" s="4" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BI295" s="4"/>
       <c r="BJ295" s="4"/>
@@ -59452,7 +59380,7 @@
         <v>111</v>
       </c>
       <c r="BH296" s="4" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BI296" s="4"/>
       <c r="BJ296" s="4"/>
@@ -59648,7 +59576,7 @@
         <v>111</v>
       </c>
       <c r="BH297" s="4" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BI297" s="4"/>
       <c r="BJ297" s="4"/>
@@ -59849,7 +59777,7 @@
         <v>111</v>
       </c>
       <c r="BH298" s="4" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BI298" s="4"/>
       <c r="BJ298" s="4"/>
@@ -60052,7 +59980,7 @@
         <v>111</v>
       </c>
       <c r="BH299" s="4" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BI299" s="4"/>
       <c r="BJ299" s="4"/>
@@ -60258,7 +60186,7 @@
         <v>111</v>
       </c>
       <c r="BH300" s="4" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BI300" s="4"/>
       <c r="BJ300" s="4"/>
@@ -60464,7 +60392,7 @@
         <v>111</v>
       </c>
       <c r="BH301" s="4" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BI301" s="4"/>
       <c r="BJ301" s="4"/>
@@ -60670,7 +60598,7 @@
         <v>111</v>
       </c>
       <c r="BH302" s="4" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BI302" s="4"/>
       <c r="BJ302" s="4"/>
@@ -60882,7 +60810,7 @@
         <v>111</v>
       </c>
       <c r="BH303" s="4" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BI303" s="4"/>
       <c r="BJ303" s="4"/>
@@ -61085,7 +61013,7 @@
         <v>111</v>
       </c>
       <c r="BH304" s="4" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BI304" s="4"/>
       <c r="BJ304" s="4"/>
@@ -61291,7 +61219,7 @@
         <v>111</v>
       </c>
       <c r="BH305" s="4" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BI305" s="4"/>
       <c r="BJ305" s="4"/>
@@ -61497,7 +61425,7 @@
         <v>111</v>
       </c>
       <c r="BH306" s="4" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BI306" s="4"/>
       <c r="BJ306" s="4"/>
@@ -61700,7 +61628,7 @@
         <v>111</v>
       </c>
       <c r="BH307" s="4" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BI307" s="4"/>
       <c r="BJ307" s="4"/>
@@ -61898,7 +61826,7 @@
         <v>111</v>
       </c>
       <c r="BH308" s="4" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BI308" s="4"/>
       <c r="BJ308" s="4"/>
@@ -62094,7 +62022,7 @@
         <v>111</v>
       </c>
       <c r="BH309" s="4" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BI309" s="4"/>
       <c r="BJ309" s="4"/>
@@ -62299,7 +62227,7 @@
         <v>111</v>
       </c>
       <c r="BH310" s="4" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BI310" s="4"/>
       <c r="BJ310" s="4"/>
@@ -62493,7 +62421,7 @@
         <v>111</v>
       </c>
       <c r="BH311" s="4" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BI311" s="4"/>
       <c r="BJ311" s="4"/>
@@ -62694,7 +62622,7 @@
         <v>111</v>
       </c>
       <c r="BH312" s="4" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BI312" s="4"/>
       <c r="BJ312" s="4"/>
@@ -62895,7 +62823,7 @@
         <v>111</v>
       </c>
       <c r="BH313" s="4" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BI313" s="4"/>
       <c r="BJ313" s="4"/>
@@ -63099,7 +63027,7 @@
         <v>111</v>
       </c>
       <c r="BH314" s="4" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BI314" s="4"/>
       <c r="BJ314" s="4"/>
@@ -63304,7 +63232,7 @@
         <v>111</v>
       </c>
       <c r="BH315" s="4" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BI315" s="4"/>
       <c r="BJ315" s="4"/>
@@ -63500,7 +63428,7 @@
         <v>111</v>
       </c>
       <c r="BH316" s="4" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BI316" s="4"/>
       <c r="BJ316" s="4"/>
@@ -63696,7 +63624,7 @@
         <v>111</v>
       </c>
       <c r="BH317" s="4" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BI317" s="4"/>
       <c r="BJ317" s="4"/>
@@ -63893,7 +63821,7 @@
         <v>111</v>
       </c>
       <c r="BH318" s="4" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BI318" s="4"/>
       <c r="BJ318" s="4"/>
@@ -64092,7 +64020,7 @@
         <v>111</v>
       </c>
       <c r="BH319" s="4" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BI319" s="4"/>
       <c r="BJ319" s="4"/>
@@ -64291,7 +64219,7 @@
         <v>111</v>
       </c>
       <c r="BH320" s="4" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BI320" s="4"/>
       <c r="BJ320" s="4"/>
@@ -64492,7 +64420,7 @@
         <v>111</v>
       </c>
       <c r="BH321" s="4" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BI321" s="4"/>
       <c r="BJ321" s="4"/>
@@ -64688,7 +64616,7 @@
         <v>111</v>
       </c>
       <c r="BH322" s="4" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BI322" s="4"/>
       <c r="BJ322" s="4"/>
@@ -64893,7 +64821,7 @@
         <v>111</v>
       </c>
       <c r="BH323" s="4" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BI323" s="4"/>
       <c r="BJ323" s="4"/>
@@ -65091,7 +65019,7 @@
         <v>111</v>
       </c>
       <c r="BH324" s="4" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BI324" s="4"/>
       <c r="BJ324" s="4"/>
@@ -65289,7 +65217,7 @@
         <v>111</v>
       </c>
       <c r="BH325" s="4" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BI325" s="4"/>
       <c r="BJ325" s="4"/>
@@ -65487,7 +65415,7 @@
         <v>111</v>
       </c>
       <c r="BH326" s="4" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BI326" s="4"/>
       <c r="BJ326" s="4"/>
@@ -65685,7 +65613,7 @@
         <v>111</v>
       </c>
       <c r="BH327" s="4" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BI327" s="4"/>
       <c r="BJ327" s="4"/>
@@ -65879,7 +65807,7 @@
         <v>111</v>
       </c>
       <c r="BH328" s="4" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BI328" s="4"/>
       <c r="BJ328" s="4"/>
@@ -65966,14 +65894,14 @@
         <v>93</v>
       </c>
       <c r="K329" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L329" s="4" t="s">
         <v>2227</v>
-      </c>
-      <c r="L329" s="4" t="s">
-        <v>2228</v>
       </c>
       <c r="M329" s="4"/>
       <c r="N329" s="4" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="O329" s="4" t="s">
         <v>97</v>
@@ -66008,12 +65936,8 @@
       <c r="AB329" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="AC329" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD329" s="4" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC329" s="5"/>
+      <c r="AD329" s="4"/>
       <c r="AF329" s="4" t="s">
         <v>103</v>
       </c>
@@ -66067,7 +65991,7 @@
         <v>98</v>
       </c>
       <c r="AZ329" s="4" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BA329" s="4" t="s">
         <v>292</v>
@@ -66089,7 +66013,7 @@
         <v>111</v>
       </c>
       <c r="BH329" s="4" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BI329" s="4"/>
       <c r="BJ329" s="4"/>
@@ -66105,13 +66029,13 @@
       <c r="BP329" s="4"/>
       <c r="BQ329" s="4"/>
       <c r="BR329" s="4" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BS329" s="5">
         <v>36949</v>
       </c>
       <c r="BT329" s="4" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="BU329" s="4" t="s">
         <v>118</v>
@@ -66136,13 +66060,13 @@
         <v>98</v>
       </c>
       <c r="CC329" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="CD329" s="4" t="s">
         <v>1821</v>
       </c>
       <c r="CE329" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="CF329" s="4"/>
     </row>
@@ -66178,14 +66102,14 @@
         <v>93</v>
       </c>
       <c r="K330" s="4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L330" s="4" t="s">
         <v>2236</v>
-      </c>
-      <c r="L330" s="4" t="s">
-        <v>2237</v>
       </c>
       <c r="M330" s="4"/>
       <c r="N330" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="O330" s="4" t="s">
         <v>97</v>
@@ -66220,12 +66144,8 @@
       <c r="AB330" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="AC330" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD330" s="4" t="s">
-        <v>2221</v>
-      </c>
+      <c r="AC330" s="5"/>
+      <c r="AD330" s="4"/>
       <c r="AF330" s="4" t="s">
         <v>103</v>
       </c>
@@ -66279,7 +66199,7 @@
         <v>98</v>
       </c>
       <c r="AZ330" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BA330" s="4" t="s">
         <v>292</v>
@@ -66303,7 +66223,7 @@
         <v>111</v>
       </c>
       <c r="BH330" s="4" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BI330" s="4"/>
       <c r="BJ330" s="4"/>
@@ -66319,13 +66239,13 @@
       <c r="BP330" s="4"/>
       <c r="BQ330" s="4"/>
       <c r="BR330" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BS330" s="5">
         <v>36825</v>
       </c>
       <c r="BT330" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BU330" s="4" t="s">
         <v>118</v>
@@ -66350,13 +66270,13 @@
         <v>98</v>
       </c>
       <c r="CC330" s="4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="CD330" s="4" t="s">
         <v>2244</v>
       </c>
-      <c r="CD330" s="4" t="s">
+      <c r="CE330" s="4" t="s">
         <v>2245</v>
-      </c>
-      <c r="CE330" s="4" t="s">
-        <v>2246</v>
       </c>
       <c r="CF330" s="4"/>
     </row>
@@ -66392,14 +66312,14 @@
         <v>144</v>
       </c>
       <c r="K331" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L331" s="4" t="s">
         <v>2336</v>
-      </c>
-      <c r="L331" s="4" t="s">
-        <v>2337</v>
       </c>
       <c r="M331" s="4"/>
       <c r="N331" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="O331" s="4" t="s">
         <v>97</v>
@@ -66458,7 +66378,7 @@
         <v>0</v>
       </c>
       <c r="AN331" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="AO331" s="4">
         <v>0</v>
@@ -66510,7 +66430,7 @@
         <v>111</v>
       </c>
       <c r="BH331" s="4" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BI331" s="4"/>
       <c r="BJ331" s="4"/>
@@ -66525,7 +66445,7 @@
       <c r="BQ331" s="4"/>
       <c r="BR331" s="4"/>
       <c r="BT331" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BU331" s="4" t="s">
         <v>118</v>
@@ -66548,13 +66468,13 @@
         <v>98</v>
       </c>
       <c r="CC331" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="CD331" s="4" t="s">
         <v>2341</v>
       </c>
-      <c r="CD331" s="4" t="s">
+      <c r="CE331" s="4" t="s">
         <v>2342</v>
-      </c>
-      <c r="CE331" s="4" t="s">
-        <v>2343</v>
       </c>
       <c r="CF331" s="4"/>
     </row>
@@ -66590,14 +66510,14 @@
         <v>144</v>
       </c>
       <c r="K332" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L332" s="4" t="s">
         <v>2344</v>
-      </c>
-      <c r="L332" s="4" t="s">
-        <v>2345</v>
       </c>
       <c r="M332" s="4"/>
       <c r="N332" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="O332" s="4" t="s">
         <v>97</v>
@@ -66656,7 +66576,7 @@
         <v>0</v>
       </c>
       <c r="AN332" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="AO332" s="4">
         <v>0</v>
@@ -66708,7 +66628,7 @@
         <v>111</v>
       </c>
       <c r="BH332" s="4" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BI332" s="4"/>
       <c r="BJ332" s="4"/>
@@ -66723,7 +66643,7 @@
       <c r="BQ332" s="4"/>
       <c r="BR332" s="4"/>
       <c r="BT332" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU332" s="4" t="s">
         <v>118</v>
@@ -66746,13 +66666,13 @@
         <v>98</v>
       </c>
       <c r="CC332" s="4" t="s">
+        <v>2348</v>
+      </c>
+      <c r="CD332" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="CD332" s="4" t="s">
+      <c r="CE332" s="4" t="s">
         <v>2350</v>
-      </c>
-      <c r="CE332" s="4" t="s">
-        <v>2351</v>
       </c>
       <c r="CF332" s="4"/>
     </row>
@@ -66788,14 +66708,14 @@
         <v>144</v>
       </c>
       <c r="K333" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L333" s="4" t="s">
         <v>2358</v>
-      </c>
-      <c r="L333" s="4" t="s">
-        <v>2359</v>
       </c>
       <c r="M333" s="4"/>
       <c r="N333" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O333" s="4" t="s">
         <v>97</v>
@@ -66854,7 +66774,7 @@
         <v>0</v>
       </c>
       <c r="AN333" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="AO333" s="4">
         <v>0</v>
@@ -66906,7 +66826,7 @@
         <v>111</v>
       </c>
       <c r="BH333" s="4" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BI333" s="4"/>
       <c r="BJ333" s="4"/>
@@ -66921,7 +66841,7 @@
       <c r="BQ333" s="4"/>
       <c r="BR333" s="4"/>
       <c r="BT333" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BU333" s="4" t="s">
         <v>118</v>
@@ -66946,13 +66866,13 @@
         <v>98</v>
       </c>
       <c r="CC333" s="4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="CD333" s="4" t="s">
         <v>1175</v>
       </c>
       <c r="CE333" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="CF333" s="4"/>
     </row>
@@ -66988,14 +66908,14 @@
         <v>93</v>
       </c>
       <c r="K334" s="4" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L334" s="4" t="s">
         <v>2437</v>
-      </c>
-      <c r="L334" s="4" t="s">
-        <v>2438</v>
       </c>
       <c r="M334" s="4"/>
       <c r="N334" s="4" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="O334" s="4" t="s">
         <v>97</v>
@@ -67086,7 +67006,7 @@
         <v>98</v>
       </c>
       <c r="AZ334" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BA334" s="4" t="s">
         <v>292</v>
@@ -67108,7 +67028,7 @@
         <v>111</v>
       </c>
       <c r="BH334" s="4" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BI334" s="4"/>
       <c r="BJ334" s="4"/>
@@ -67123,7 +67043,7 @@
       <c r="BQ334" s="4"/>
       <c r="BR334" s="4"/>
       <c r="BT334" s="4" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU334" s="4" t="s">
         <v>118</v>
@@ -67144,13 +67064,13 @@
         <v>98</v>
       </c>
       <c r="CC334" s="4" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="CD334" s="4" t="s">
         <v>438</v>
       </c>
       <c r="CE334" s="4" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="CF334" s="4"/>
     </row>
@@ -67186,14 +67106,14 @@
         <v>93</v>
       </c>
       <c r="K335" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L335" s="4" t="s">
         <v>2445</v>
-      </c>
-      <c r="L335" s="4" t="s">
-        <v>2446</v>
       </c>
       <c r="M335" s="4"/>
       <c r="N335" s="4" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="O335" s="4" t="s">
         <v>97</v>
@@ -67282,7 +67202,7 @@
         <v>98</v>
       </c>
       <c r="AZ335" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BA335" s="4" t="s">
         <v>292</v>
@@ -67304,7 +67224,7 @@
         <v>111</v>
       </c>
       <c r="BH335" s="4" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BI335" s="4"/>
       <c r="BJ335" s="4"/>
@@ -67320,13 +67240,13 @@
       <c r="BP335" s="4"/>
       <c r="BQ335" s="4"/>
       <c r="BR335" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BS335" s="5">
         <v>36099</v>
       </c>
       <c r="BT335" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU335" s="4" t="s">
         <v>118</v>
@@ -67347,13 +67267,13 @@
         <v>98</v>
       </c>
       <c r="CC335" s="4" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CD335" s="4" t="s">
         <v>2453</v>
       </c>
-      <c r="CD335" s="4" t="s">
+      <c r="CE335" s="4" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE335" s="4" t="s">
-        <v>2455</v>
       </c>
       <c r="CF335" s="4"/>
     </row>
@@ -67389,14 +67309,14 @@
         <v>93</v>
       </c>
       <c r="K336" s="4" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L336" s="4" t="s">
         <v>2456</v>
-      </c>
-      <c r="L336" s="4" t="s">
-        <v>2457</v>
       </c>
       <c r="M336" s="4"/>
       <c r="N336" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="O336" s="4" t="s">
         <v>97</v>
@@ -67485,7 +67405,7 @@
         <v>98</v>
       </c>
       <c r="AZ336" s="4" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BA336" s="4" t="s">
         <v>292</v>
@@ -67507,7 +67427,7 @@
         <v>111</v>
       </c>
       <c r="BH336" s="4" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BI336" s="4"/>
       <c r="BJ336" s="4"/>
@@ -67523,13 +67443,13 @@
       <c r="BP336" s="4"/>
       <c r="BQ336" s="4"/>
       <c r="BR336" s="4" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BS336" s="5">
         <v>37735</v>
       </c>
       <c r="BT336" s="4" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BU336" s="4" t="s">
         <v>118</v>
@@ -67550,13 +67470,13 @@
         <v>98</v>
       </c>
       <c r="CC336" s="4" t="s">
+        <v>2462</v>
+      </c>
+      <c r="CD336" s="4" t="s">
         <v>2463</v>
       </c>
-      <c r="CD336" s="4" t="s">
+      <c r="CE336" s="4" t="s">
         <v>2464</v>
-      </c>
-      <c r="CE336" s="4" t="s">
-        <v>2465</v>
       </c>
       <c r="CF336" s="4"/>
     </row>
@@ -67592,14 +67512,14 @@
         <v>144</v>
       </c>
       <c r="K337" s="4" t="s">
+        <v>2499</v>
+      </c>
+      <c r="L337" s="4" t="s">
         <v>2500</v>
-      </c>
-      <c r="L337" s="4" t="s">
-        <v>2501</v>
       </c>
       <c r="M337" s="4"/>
       <c r="N337" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="O337" s="4" t="s">
         <v>97</v>
@@ -67649,7 +67569,7 @@
         <v>0</v>
       </c>
       <c r="AN337" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="AO337" s="4">
         <v>0</v>
@@ -67699,7 +67619,7 @@
         <v>111</v>
       </c>
       <c r="BH337" s="4" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BI337" s="4"/>
       <c r="BJ337" s="4"/>
@@ -67714,7 +67634,7 @@
       <c r="BQ337" s="4"/>
       <c r="BR337" s="4"/>
       <c r="BT337" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BU337" s="4" t="s">
         <v>118</v>
@@ -67735,17 +67655,18 @@
         <v>98</v>
       </c>
       <c r="CC337" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="CD337" s="4" t="s">
         <v>318</v>
       </c>
       <c r="CE337" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="CF337" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF337" xr:uid="{559DAE63-EE52-49B8-987D-FD3B5241B3BD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>